--- a/web/files/templates/base_with_logo.xlsx
+++ b/web/files/templates/base_with_logo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sleverin/Projects/LetitPtichka/www/lk.letitprichka.ru/web/files/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95DD9B8A-337B-574D-BF30-CAEAEFB4DAD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CB6002A-AA79-064A-82E4-3414BB0B3077}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7320" yWindow="5320" windowWidth="28240" windowHeight="17560" xr2:uid="{8B999C92-AD3B-9345-A76A-5EE3E4F818F4}"/>
+    <workbookView xWindow="7320" yWindow="4840" windowWidth="28240" windowHeight="17560" xr2:uid="{8B999C92-AD3B-9345-A76A-5EE3E4F818F4}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -73,72 +73,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>6782</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Рисунок 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A3F399F-49FC-A442-BFF7-A876A2919B8C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="5778500" y="0"/>
-          <a:ext cx="2483282" cy="1206500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -447,6 +381,5 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>